--- a/gfconf/conf/role_init_item.xlsx
+++ b/gfconf/conf/role_init_item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A2C24A11-73FA-4613-89E0-421FEA937007}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A1A4AFAF-B329-42CE-A74A-2860F540EE04}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,7 +895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/gfconf/conf/role_init_item.xlsx
+++ b/gfconf/conf/role_init_item.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A1A4AFAF-B329-42CE-A74A-2860F540EE04}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="新表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ItemId</t>
         </r>
@@ -41,7 +35,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>范围</t>
@@ -50,7 +43,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：</t>
@@ -59,7 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1~19999
 </t>
@@ -69,7 +61,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -78,7 +70,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>范围规划</t>
@@ -87,7 +78,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
    </t>
@@ -96,7 +87,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>将魂：</t>
@@ -105,7 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1~400
   </t>
@@ -114,7 +104,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗品：</t>
@@ -123,7 +112,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">451~1000
 </t>
@@ -132,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【神器】
@@ -142,7 +130,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -150,7 +138,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>兵器：</t>
@@ -159,7 +146,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1001~1500
    </t>
@@ -168,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>宝物：</t>
@@ -177,7 +163,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1501~2000
 </t>
@@ -186,7 +172,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【装备】
@@ -196,7 +181,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -204,7 +189,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装备：</t>
@@ -213,7 +197,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2001~3000
 </t>
@@ -222,7 +206,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>制作卷：</t>
@@ -231,7 +214,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3001~4000
 </t>
@@ -240,7 +223,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【碎片】
@@ -250,7 +232,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -258,7 +240,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>制作卷碎片：</t>
@@ -267,7 +248,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>4001~5000</t>
         </r>
@@ -275,7 +256,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -285,7 +265,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">    </t>
         </r>
@@ -293,7 +273,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装备碎片：</t>
@@ -302,7 +281,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5001~6000
 </t>
@@ -311,7 +290,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【资源】
@@ -321,7 +299,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -329,7 +307,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>≥</t>
@@ -338,7 +315,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>100000</t>
         </r>
@@ -346,7 +323,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -356,7 +332,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -368,55 +344,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>值/数量</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>上阵军队1士兵</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>joinInArmySeq1</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>100004</t>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100025</t>
+  </si>
+  <si>
+    <t>300001,300002</t>
   </si>
   <si>
     <t>200001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>200002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>200003</t>
@@ -435,30 +422,22 @@
   </si>
   <si>
     <t>300001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>300002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>值/数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,56 +450,166 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,12 +618,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -570,9 +845,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -588,17 +1105,61 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -885,166 +1446,185 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
+    <col min="2" max="3" width="8.55833333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.1083333333333" customWidth="1"/>
+    <col min="15" max="15" width="8.88333333333333" customWidth="1"/>
+    <col min="16" max="16" width="9.33333333333333" customWidth="1"/>
+    <col min="20" max="20" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3"/>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1052,10 +1632,11 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
+      <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1063,11 +1644,24 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>